--- a/data/pbn_procedures.xlsx
+++ b/data/pbn_procedures.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224DA6E-1D3B-4DFB-9B5F-4FDEB6AFF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C55719-FE3C-4B8B-ACA3-298B4AD227AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pbn_deployment" sheetId="1" r:id="rId1"/>
     <sheet name="ils_deployment" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">pbn_deployment!$A$13</definedName>
+    <definedName name="_ftn1" localSheetId="0">pbn_deployment!$A$12</definedName>
     <definedName name="_ftnref1" localSheetId="0">pbn_deployment!$A$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>RNP APCH to LNAV</t>
   </si>
@@ -61,9 +61,6 @@
     <t>ILS (all, see breakdown below)</t>
   </si>
   <si>
-    <t>APV (LPV or LNAV/VNAV or RNP AR APCH)</t>
-  </si>
-  <si>
     <t>3D (ILS Cat I or ILS Cat II/II or APV)</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
   </si>
   <si>
     <t>runway_share</t>
-  </si>
-  <si>
-    <t>apt_nb</t>
-  </si>
-  <si>
-    <t>apt_share</t>
   </si>
   <si>
     <t>ILS Cat I (and no Cat II/III)</t>
@@ -406,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,193 +408,118 @@
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>974</v>
+        <v>1154</v>
       </c>
       <c r="C2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D2">
-        <v>511</v>
-      </c>
-      <c r="E2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>696</v>
+        <v>833</v>
       </c>
       <c r="C3">
-        <v>0.442</v>
-      </c>
-      <c r="D3">
-        <v>353</v>
-      </c>
-      <c r="E3">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>638</v>
+        <v>754</v>
       </c>
       <c r="C4">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="D4">
-        <v>345</v>
-      </c>
-      <c r="E4">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>993</v>
+        <v>1173</v>
       </c>
       <c r="C5">
-        <v>0.63</v>
-      </c>
-      <c r="D5">
-        <v>516</v>
-      </c>
-      <c r="E5">
-        <v>0.67600000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.02</v>
       </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>814</v>
+        <v>775</v>
       </c>
       <c r="C7">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="D7">
-        <v>525</v>
-      </c>
-      <c r="E7">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>853</v>
+        <v>948</v>
       </c>
       <c r="C9">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="D9">
-        <v>440</v>
-      </c>
-      <c r="E9">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1188</v>
-      </c>
-      <c r="C10">
-        <v>0.754</v>
-      </c>
-      <c r="D10">
-        <v>644</v>
-      </c>
-      <c r="E10">
-        <v>0.84399999999999997</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" location="_ftn1" display="_ftn1" xr:uid="{BC972E1D-CC8C-4F20-9699-C0F672E797B4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C73B08-2126-4239-B752-EF05722FF205}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,58 +527,39 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>549</v>
-      </c>
-      <c r="C2">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D2">
-        <v>438</v>
-      </c>
-      <c r="E2">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D3">
-        <v>169</v>
-      </c>
-      <c r="E3">
-        <v>0.222</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
